--- a/Prototypes/DEROPAPY/CropCoeffs.xlsx
+++ b/Prototypes/DEROPAPY/CropCoeffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Prototypes\DEROPAPY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB0728-B017-4E52-8AD0-C351200DAAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782BFCD-246C-475B-8CA6-DBBA2D34AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" xr2:uid="{8F6A32B5-4D14-47E5-8828-FB172D898847}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F6A32B5-4D14-47E5-8828-FB172D898847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4AAE8606-400E-4F07-BD84-152E82ECF4CF}</author>
-    <author>tc={80AB35D1-0D5A-4F19-AC6B-E437A2AED664}</author>
-    <author>tc={DB13C0F3-CC82-4EEB-9546-CB239C739A2C}</author>
-    <author>tc={76AC58A4-0572-40B6-B934-542686E78098}</author>
-    <author>tc={275C7E74-908E-4E1E-BB34-01104C113C9A}</author>
     <author>tc={17218D61-A769-49E9-8A24-298A6542CAA1}</author>
     <author>tc={975370C3-205B-4135-A00C-55C7C9BE1028}</author>
+    <author>tc={80AB35D1-0D5A-4F19-AC6B-E437A2AED664}</author>
+    <author>tc={4AAE8606-400E-4F07-BD84-152E82ECF4CF}</author>
+    <author>tc={275C7E74-908E-4E1E-BB34-01104C113C9A}</author>
     <author>tc={81BF44B2-7059-44CD-A920-44BC080E47B6}</author>
     <author>tc={1C8203E2-D6B8-4351-A674-71739682F010}</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{4AAE8606-400E-4F07-BD84-152E82ECF4CF}">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{17218D61-A769-49E9-8A24-298A6542CAA1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Could add number functionality to SCRUM</t>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="1" shapeId="0" xr:uid="{975370C3-205B-4135-A00C-55C7C9BE1028}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Could Add product size functionality to SCRUM</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="2" shapeId="0" xr:uid="{80AB35D1-0D5A-4F19-AC6B-E437A2AED664}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Need to think how to merge this with MaxHeight to reduce number of paramters</t>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="3" shapeId="0" xr:uid="{4AAE8606-400E-4F07-BD84-152E82ECF4CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,32 +79,7 @@
     SCRUM allows us to specify a harvest date or a tt target from establishment to harvest.  Need to work out how we will drive this.  Not needed for perenials as they will be established on day 1 of simulations</t>
       </text>
     </comment>
-    <comment ref="B40" authorId="1" shapeId="0" xr:uid="{80AB35D1-0D5A-4F19-AC6B-E437A2AED664}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Need to think how to merge this with MaxHeight to reduce number of paramters</t>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="2" shapeId="0" xr:uid="{DB13C0F3-CC82-4EEB-9546-CB239C739A2C}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Can harmonize with stoverNConc
-</t>
-      </text>
-    </comment>
-    <comment ref="B45" authorId="3" shapeId="0" xr:uid="{76AC58A4-0572-40B6-B934-542686E78098}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Can harmonize with product N</t>
-      </text>
-    </comment>
-    <comment ref="B46" authorId="4" shapeId="0" xr:uid="{275C7E74-908E-4E1E-BB34-01104C113C9A}">
+    <comment ref="B63" authorId="4" shapeId="0" xr:uid="{275C7E74-908E-4E1E-BB34-01104C113C9A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,36 +87,25 @@
     Can harmonize with Amax</t>
       </text>
     </comment>
-    <comment ref="B47" authorId="5" shapeId="0" xr:uid="{17218D61-A769-49E9-8A24-298A6542CAA1}">
+    <comment ref="B67" authorId="5" shapeId="0" xr:uid="{81BF44B2-7059-44CD-A920-44BC080E47B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Could add number functionality to SCRUM</t>
+    Can harmonize with MoisturePc
+Reply:
+    Done</t>
       </text>
     </comment>
-    <comment ref="B48" authorId="6" shapeId="0" xr:uid="{975370C3-205B-4135-A00C-55C7C9BE1028}">
+    <comment ref="B72" authorId="6" shapeId="0" xr:uid="{1C8203E2-D6B8-4351-A674-71739682F010}">
       <text>
-        <t>[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Could Add product size functionality to SCRUM</t>
-      </text>
-    </comment>
-    <comment ref="B50" authorId="7" shapeId="0" xr:uid="{81BF44B2-7059-44CD-A920-44BC080E47B6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Can harmonize with MoisturePc</t>
-      </text>
-    </comment>
-    <comment ref="B55" authorId="8" shapeId="0" xr:uid="{1C8203E2-D6B8-4351-A674-71739682F010}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Alter SPRUM so it has Age at start of simulation and years to reach max dimension so this can be merged with MaxRD as for other two crops</t>
+    Alter SPRUM so it has Age at start of simulation and years to reach max dimension so this can be merged with MaxRD as for other two crops
+Reply:
+    Done
+</t>
       </text>
     </comment>
   </commentList>
@@ -127,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="98">
   <si>
     <t>CropName</t>
   </si>
@@ -135,9 +121,6 @@
     <t>HarvestIndex</t>
   </si>
   <si>
-    <t>MoisturePc</t>
-  </si>
-  <si>
     <t>Proot</t>
   </si>
   <si>
@@ -147,18 +130,12 @@
     <t>MaxHeight</t>
   </si>
   <si>
-    <t>Acover</t>
-  </si>
-  <si>
     <t>ExtinctCoeff</t>
   </si>
   <si>
     <t>RootNConc</t>
   </si>
   <si>
-    <t>StoverNConc</t>
-  </si>
-  <si>
     <t>ProductNConc</t>
   </si>
   <si>
@@ -174,9 +151,6 @@
     <t>MaxT</t>
   </si>
   <si>
-    <t>Legume</t>
-  </si>
-  <si>
     <t>WaterStress</t>
   </si>
   <si>
@@ -258,27 +232,12 @@
     <t>MaxPrunedHeight</t>
   </si>
   <si>
-    <t>SeasonalHeightGrowth</t>
-  </si>
-  <si>
     <t>MaxPrunedWidth</t>
   </si>
   <si>
     <t>SeasonalWidthGrowth</t>
   </si>
   <si>
-    <t>LeafNConc</t>
-  </si>
-  <si>
-    <t>TrunkNConc</t>
-  </si>
-  <si>
-    <t>FruitNConc</t>
-  </si>
-  <si>
-    <t>MaxLAI</t>
-  </si>
-  <si>
     <t>GSMax</t>
   </si>
   <si>
@@ -294,9 +253,6 @@
     <t>Density</t>
   </si>
   <si>
-    <t>DMC</t>
-  </si>
-  <si>
     <t>DAWSMaxBloom</t>
   </si>
   <si>
@@ -339,12 +295,6 @@
     <t>Maximum growth rate of pasture (g/m2/oCd)</t>
   </si>
   <si>
-    <t>Root depth (mm)</t>
-  </si>
-  <si>
-    <t>MaxRootDepth</t>
-  </si>
-  <si>
     <t>Grow roots into neighbouring zone (yes or no)</t>
   </si>
   <si>
@@ -360,12 +310,6 @@
     <t>Net radiation at 50% of maximum conductance (between 50 and 200)</t>
   </si>
   <si>
-    <t>Proportion of pasture mass that is leguem (0-1)</t>
-  </si>
-  <si>
-    <t>Tree Age At Start of Simulation</t>
-  </si>
-  <si>
     <t>Years from planting to reach Maximum dimension (years)</t>
   </si>
   <si>
@@ -390,33 +334,18 @@
     <t>Hight of the bottom of the canopy (mm)</t>
   </si>
   <si>
-    <t>Hight of the top of the canopy after pruning mature tree (mm)</t>
-  </si>
-  <si>
-    <t>Increase in hight between bud burst and pruning of mature tree (mm)</t>
-  </si>
-  <si>
     <t>Width of the top of the canopy after pruning mature tree (mm)</t>
   </si>
   <si>
     <t>Increase in width between bud burst and pruning of mature tree (mm)</t>
   </si>
   <si>
-    <t>Leaf Nitrogen concentration at maturity (g/g)</t>
-  </si>
-  <si>
     <t>Trunk and branch Nitrogen concentration (g/g)</t>
   </si>
   <si>
-    <t>Fruit Nitrogen concentration at maturity (g/g)</t>
-  </si>
-  <si>
     <t>Extinction coefficient (0-1)</t>
   </si>
   <si>
-    <t>Maximum LAI of mature tree prior to Leaf Fall (m2/m2)</t>
-  </si>
-  <si>
     <t>Fruit number retained (/m2 post thinning)</t>
   </si>
   <si>
@@ -426,9 +355,6 @@
     <t>Fruit Density (g/cm3)</t>
   </si>
   <si>
-    <t>Fruit DM conc (g/g)</t>
-  </si>
-  <si>
     <t>Maximum Bloom (Days After Winter Solstice)</t>
   </si>
   <si>
@@ -445,25 +371,55 @@
   </si>
   <si>
     <t>SPRUM</t>
+  </si>
+  <si>
+    <t>Product DM conc (g/g)</t>
+  </si>
+  <si>
+    <t>Harvest Index (0-1)</t>
+  </si>
+  <si>
+    <t>Tree Age At Start of Simulation (years)</t>
+  </si>
+  <si>
+    <t>Root Biomass proportion (0-1)</t>
+  </si>
+  <si>
+    <t>DryMatterContent</t>
+  </si>
+  <si>
+    <t>Height of mature plant at harvest, pruning or grazing (mm)</t>
+  </si>
+  <si>
+    <t>Hight mature plant after pruning or grazing (mm)</t>
+  </si>
+  <si>
+    <t>MaxCover</t>
+  </si>
+  <si>
+    <t>Maximum green cover (0-0.99)</t>
+  </si>
+  <si>
+    <t>WoodNConc</t>
+  </si>
+  <si>
+    <t>Harvested product N concentration (g/g)</t>
+  </si>
+  <si>
+    <t>Proportion of crop or pasture mass that is leguem (0-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -475,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,8 +444,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -497,16 +465,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,43 +824,43 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B22" dT="2023-11-22T19:38:57.28" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{4AAE8606-400E-4F07-BD84-152E82ECF4CF}">
+  <threadedComment ref="B31" dT="2023-11-22T19:45:11.38" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{17218D61-A769-49E9-8A24-298A6542CAA1}">
+    <text>Could add number functionality to SCRUM</text>
+  </threadedComment>
+  <threadedComment ref="B32" dT="2023-11-22T19:45:30.98" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{975370C3-205B-4135-A00C-55C7C9BE1028}">
+    <text>Could Add product size functionality to SCRUM</text>
+  </threadedComment>
+  <threadedComment ref="B35" dT="2023-11-22T19:40:22.78" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{80AB35D1-0D5A-4F19-AC6B-E437A2AED664}">
+    <text>Need to think how to merge this with MaxHeight to reduce number of paramters</text>
+  </threadedComment>
+  <threadedComment ref="B42" dT="2023-11-22T19:38:57.28" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{4AAE8606-400E-4F07-BD84-152E82ECF4CF}">
     <text>SCRUM allows us to specify a harvest date or a tt target from establishment to harvest.  Need to work out how we will drive this.  Not needed for perenials as they will be established on day 1 of simulations</text>
   </threadedComment>
-  <threadedComment ref="B40" dT="2023-11-22T19:40:22.78" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{80AB35D1-0D5A-4F19-AC6B-E437A2AED664}">
-    <text>Need to think how to merge this with MaxHeight to reduce number of paramters</text>
-  </threadedComment>
-  <threadedComment ref="B43" dT="2023-11-22T19:41:36.83" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{DB13C0F3-CC82-4EEB-9546-CB239C739A2C}">
-    <text xml:space="preserve">Can harmonize with stoverNConc
-</text>
-  </threadedComment>
-  <threadedComment ref="B45" dT="2023-11-22T19:43:22.33" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{76AC58A4-0572-40B6-B934-542686E78098}">
-    <text>Can harmonize with product N</text>
-  </threadedComment>
-  <threadedComment ref="B46" dT="2023-11-22T19:43:57.33" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{275C7E74-908E-4E1E-BB34-01104C113C9A}">
+  <threadedComment ref="B63" dT="2023-11-22T19:43:57.33" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{275C7E74-908E-4E1E-BB34-01104C113C9A}">
     <text>Can harmonize with Amax</text>
   </threadedComment>
-  <threadedComment ref="B47" dT="2023-11-22T19:45:11.38" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{17218D61-A769-49E9-8A24-298A6542CAA1}">
-    <text>Could add number functionality to SCRUM</text>
-  </threadedComment>
-  <threadedComment ref="B48" dT="2023-11-22T19:45:30.98" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{975370C3-205B-4135-A00C-55C7C9BE1028}">
-    <text>Could Add product size functionality to SCRUM</text>
-  </threadedComment>
-  <threadedComment ref="B50" dT="2023-11-22T19:44:30.03" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{81BF44B2-7059-44CD-A920-44BC080E47B6}">
+  <threadedComment ref="B67" dT="2023-11-22T19:44:30.03" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{81BF44B2-7059-44CD-A920-44BC080E47B6}">
     <text>Can harmonize with MoisturePc</text>
   </threadedComment>
-  <threadedComment ref="B55" dT="2023-11-22T19:37:24.81" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{1C8203E2-D6B8-4351-A674-71739682F010}">
+  <threadedComment ref="B67" dT="2023-11-23T19:31:50.86" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{E0F557CA-5130-49EE-8605-82B0DDE4FF35}" parentId="{81BF44B2-7059-44CD-A920-44BC080E47B6}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="B72" dT="2023-11-22T19:37:24.81" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{1C8203E2-D6B8-4351-A674-71739682F010}">
     <text>Alter SPRUM so it has Age at start of simulation and years to reach max dimension so this can be merged with MaxRD as for other two crops</text>
+  </threadedComment>
+  <threadedComment ref="B72" dT="2023-11-23T19:26:06.53" personId="{3240BE04-DA02-4F10-97D6-B41D145D121C}" id="{647C7582-2894-43D6-BBA8-94944C03F8B7}" parentId="{1C8203E2-D6B8-4351-A674-71739682F010}">
+    <text xml:space="preserve">Done
+</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FF51F9-DDB7-4AEC-92B1-441A593FBB9A}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A31" sqref="A31:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,101 +872,110 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
       <c r="D3">
         <v>0.5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
       </c>
       <c r="D4">
         <v>0.15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
+      <c r="E4">
+        <v>0.16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
       </c>
       <c r="D5">
         <v>0.1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>61</v>
+      <c r="E5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -977,961 +983,853 @@
       <c r="E6">
         <v>3000</v>
       </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>61</v>
+      <c r="E7" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F7" s="2">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>1000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0.01</v>
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.8</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
+      <c r="E13" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>0.03</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>61</v>
+      <c r="E15" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>0.03</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="F18" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45200</v>
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="F19" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F21">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>1300</v>
+        <v>12</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>150</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>305</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>330</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28">
-        <v>8.0000000000000002E-3</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F28">
-        <v>4.0000000000000001E-3</v>
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29">
-        <v>150</v>
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>340</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>0.75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34">
-        <v>150</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="D34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35">
-        <v>305</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E36">
-        <v>330</v>
+        <v>1300</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1000</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39">
-        <v>2800</v>
+        <v>17</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45200</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40">
-        <v>700</v>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41">
-        <v>1300</v>
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42">
-        <v>300</v>
+        <v>51</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43">
-        <v>0.02</v>
-      </c>
-      <c r="F43">
-        <v>0.05</v>
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44">
-        <v>0.01</v>
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45">
-        <v>0.02</v>
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E48">
-        <v>90</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E49">
-        <v>0.75</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E50">
-        <v>0.16</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51">
-        <v>60</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52">
-        <v>175</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52">
+        <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53">
-        <v>340</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Prototypes/DEROPAPY/CropCoeffs.xlsx
+++ b/Prototypes/DEROPAPY/CropCoeffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Prototypes\DEROPAPY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782BFCD-246C-475B-8CA6-DBBA2D34AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792D38A2-0FB8-4E32-AFE3-8523B8400719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F6A32B5-4D14-47E5-8828-FB172D898847}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F6A32B5-4D14-47E5-8828-FB172D898847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,14 +860,14 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD33"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
